--- a/Output_Backtest/Mean-CVaR_cumulative_returns.xlsx
+++ b/Output_Backtest/Mean-CVaR_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9905940920329637</v>
+        <v>0.9902107060061737</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9744933028023419</v>
+        <v>0.9737570640506348</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9746054216128183</v>
+        <v>0.9734347241346696</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9817155150112286</v>
+        <v>0.9807157579956981</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>1.003289582410783</v>
+        <v>1.002038807513359</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.010446563690125</v>
+        <v>1.009667476536796</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.01621148734465</v>
+        <v>1.015177407416542</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.036170222028172</v>
+        <v>1.034707088070321</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.048908632953307</v>
+        <v>1.049106829418285</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.044666144971643</v>
+        <v>1.045437976850108</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.047939202481969</v>
+        <v>1.04918761996791</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.033934184369741</v>
+        <v>1.035060735129798</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.008507612265307</v>
+        <v>1.010641654284586</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.014024114043788</v>
+        <v>1.017144731775148</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.021042665483853</v>
+        <v>1.021834701402771</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.032772744322213</v>
+        <v>1.033472309684302</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.034617832967062</v>
+        <v>1.033554261228949</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.046344319453603</v>
+        <v>1.043520453939684</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.054673370954813</v>
+        <v>1.05117171499442</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.054047892007705</v>
+        <v>1.052332149350298</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.063300507754302</v>
+        <v>1.060184107184129</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.072293730286348</v>
+        <v>1.067460453690931</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.072488417403566</v>
+        <v>1.068422666048356</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.076861677177917</v>
+        <v>1.07121423469079</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.080799350905708</v>
+        <v>1.075221893505359</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.083864931584088</v>
+        <v>1.079046903070439</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.081955213779954</v>
+        <v>1.075346876155058</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.066898187890624</v>
+        <v>1.0592557158167</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.070957771049494</v>
+        <v>1.06305886650517</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.063583260798471</v>
+        <v>1.057770939901896</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.08154248779318</v>
+        <v>1.068904112189794</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.084252276136884</v>
+        <v>1.070381770584371</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.090185221976774</v>
+        <v>1.078169002005583</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.107168147457552</v>
+        <v>1.089697979106776</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.096547804938103</v>
+        <v>1.0810429214979</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.060278980839928</v>
+        <v>1.045983506648715</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.06775002302227</v>
+        <v>1.052216228376619</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.037110065751139</v>
+        <v>1.029999923405443</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.079756149170809</v>
+        <v>1.078502003154128</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.086777838786474</v>
+        <v>1.079024746486181</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.101206898957976</v>
+        <v>1.095174940405578</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.109949723002992</v>
+        <v>1.102889405659922</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.102900287172644</v>
+        <v>1.095764807224092</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.133942024022185</v>
+        <v>1.126381492417958</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.136373875595579</v>
+        <v>1.128742540146736</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.149122633867884</v>
+        <v>1.141349933596969</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.151035216596212</v>
+        <v>1.143414427938906</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.154833135163887</v>
+        <v>1.14704857798047</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.156956182699509</v>
+        <v>1.149656682296057</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.173249788610834</v>
+        <v>1.168507275061262</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.195299323589458</v>
+        <v>1.17294486349723</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.186854215329904</v>
+        <v>1.164746035539693</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.169016176439121</v>
+        <v>1.110022702675355</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.210018838397235</v>
+        <v>1.141155527828965</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.238247371541643</v>
+        <v>1.158418172162354</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.267248183546081</v>
+        <v>1.170421119031352</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.319116297142639</v>
+        <v>1.217805380041586</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.341431918184637</v>
+        <v>1.238419579425917</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.313051916390136</v>
+        <v>1.212211031493007</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.29842070043447</v>
+        <v>1.198613281767058</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.334073219546689</v>
+        <v>1.230189975269442</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.348858633706194</v>
+        <v>1.243894675579308</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.338151663303239</v>
+        <v>1.233793154077623</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.31778209384611</v>
+        <v>1.214592311949505</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.308329302024141</v>
+        <v>1.20218740470369</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.327710193004083</v>
+        <v>1.219139956589135</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.343058380896766</v>
+        <v>1.232405780279863</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.344775149086242</v>
+        <v>1.235363399176319</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.356363715770227</v>
+        <v>1.244977285600061</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.358803317138201</v>
+        <v>1.246759292435234</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.337235341161394</v>
+        <v>1.226435816451868</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.342834673160976</v>
+        <v>1.228512414869103</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.335550384389051</v>
+        <v>1.22531459882985</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.351111344105323</v>
+        <v>1.238623956832375</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.32536701495942</v>
+        <v>1.210351047651278</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.335067786667647</v>
+        <v>1.218643165303038</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.313773935405955</v>
+        <v>1.198763277224144</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.270359001288289</v>
+        <v>1.159115308297659</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.276374354573445</v>
+        <v>1.164602739054778</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.254846581667599</v>
+        <v>1.144960240529182</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.257314240421723</v>
+        <v>1.147211703686594</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.213372518191514</v>
+        <v>1.107118187204169</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.162174727627326</v>
+        <v>1.060403742123825</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.16315117117683</v>
+        <v>1.061294911120431</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.215353159650209</v>
+        <v>1.108925761767984</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.216622368658999</v>
+        <v>1.110083601422111</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.264869466744363</v>
+        <v>1.154105789412398</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.22633723984417</v>
+        <v>1.118947766582059</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.271000447155918</v>
+        <v>1.159699887527621</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.279211406592149</v>
+        <v>1.167191855345568</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.266789141994586</v>
+        <v>1.155857374397357</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.27207816232993</v>
+        <v>1.159873427464121</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.290015773084956</v>
+        <v>1.175574997382243</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.276933376995834</v>
+        <v>1.1645669958754</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.245793342802649</v>
+        <v>1.135548479962464</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.262161776333346</v>
+        <v>1.150668051567971</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.307048406043463</v>
+        <v>1.192095088462096</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.33941996540145</v>
+        <v>1.22202001656918</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.328700051679145</v>
+        <v>1.212865809323563</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.331998046364261</v>
+        <v>1.215091392313539</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.375547392287969</v>
+        <v>1.254742941773101</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.369604312425194</v>
+        <v>1.249376839815741</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.386711179217526</v>
+        <v>1.265493515641419</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.389699918254422</v>
+        <v>1.268591468183647</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.428957264490009</v>
+        <v>1.305263486831298</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.451953311115058</v>
+        <v>1.32646539573154</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.486505201967108</v>
+        <v>1.358360161880296</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.488196697961886</v>
+        <v>1.359921180501079</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.459156736272788</v>
+        <v>1.333356357338353</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Mean-CVaR_cumulative_returns.xlsx
+++ b/Output_Backtest/Mean-CVaR_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9902107060061737</v>
+        <v>0.9902103999880529</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9737570640506348</v>
+        <v>0.9737555050312927</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9734347241346696</v>
+        <v>0.973697804147033</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9807157579956981</v>
+        <v>0.9811283474814262</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>1.002038807513359</v>
+        <v>1.002390242268726</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.009667476536796</v>
+        <v>1.009783095952597</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.015177407416542</v>
+        <v>1.01530501234403</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.034707088070321</v>
+        <v>1.035053928716694</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.049106829418285</v>
+        <v>1.043497779304444</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.045437976850108</v>
+        <v>1.039111193682349</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.04918761996791</v>
+        <v>1.042952260608069</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.035060735129798</v>
+        <v>1.028501202004389</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>1.010641654284586</v>
+        <v>1.004311842234922</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>1.017144731775148</v>
+        <v>1.010783138024612</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.021834701402771</v>
+        <v>1.015534679098214</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.033472309684302</v>
+        <v>1.027173791161407</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.033554261228949</v>
+        <v>1.027248403798706</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.043520453939684</v>
+        <v>1.037113790982774</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.05117171499442</v>
+        <v>1.044775241194754</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.052332149350298</v>
+        <v>1.045870952569382</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.060184107184129</v>
+        <v>1.053661361440509</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.067460453690931</v>
+        <v>1.060912552439293</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.068422666048356</v>
+        <v>1.061772143263523</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.07121423469079</v>
+        <v>1.059346769445978</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.075221893505359</v>
+        <v>1.062104231957967</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.079046903070439</v>
+        <v>1.067658425158696</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.075346876155058</v>
+        <v>1.061574937730279</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.0592557158167</v>
+        <v>1.044797100541301</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.06305886650517</v>
+        <v>1.053579962618702</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.057770939901896</v>
+        <v>1.04836979290176</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.068904112189794</v>
+        <v>1.059591851922774</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.070381770584371</v>
+        <v>1.060944481852882</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.078169002005583</v>
+        <v>1.068826405218046</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.089697979106776</v>
+        <v>1.080525049538096</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.0810429214979</v>
+        <v>1.073537078042897</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.045983506648715</v>
+        <v>1.054865627863314</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.052216228376619</v>
+        <v>1.059159146474512</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.029999923405443</v>
+        <v>1.039063394356235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.078502003154128</v>
+        <v>1.081907122936856</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.079024746486181</v>
+        <v>1.088328423508439</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.095174940405578</v>
+        <v>1.101654802885248</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.102889405659922</v>
+        <v>1.108843150247756</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.095764807224092</v>
+        <v>1.104408967698508</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.126381492417958</v>
+        <v>1.133056443079848</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.128742540146736</v>
+        <v>1.135253372715445</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.141349933596969</v>
+        <v>1.149198620367979</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.143414427938906</v>
+        <v>1.150606710968019</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.14704857798047</v>
+        <v>1.154223030722365</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.149656682296057</v>
+        <v>1.155868443938312</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.168507275061262</v>
+        <v>1.172635165887884</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.17294486349723</v>
+        <v>1.194707668526843</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.164746035539693</v>
+        <v>1.18623839816058</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.110022702675355</v>
+        <v>1.168412800243789</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.141155527828965</v>
+        <v>1.210103279259411</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.158418172162354</v>
+        <v>1.238441232774335</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.170421119031352</v>
+        <v>1.260208532459752</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.217805380041586</v>
+        <v>1.306165044858402</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.238419579425917</v>
+        <v>1.319193015086898</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.212211031493007</v>
+        <v>1.298180611289951</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.198613281767058</v>
+        <v>1.283013962825525</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.230189975269442</v>
+        <v>1.323320059177155</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.243894675579308</v>
+        <v>1.338327899277804</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.233793154077623</v>
+        <v>1.326458622191301</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.214592311949505</v>
+        <v>1.305345227758089</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.20218740470369</v>
+        <v>1.299005620913957</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.219139956589135</v>
+        <v>1.317953656976757</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.232405780279863</v>
+        <v>1.326440433589308</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.235363399176319</v>
+        <v>1.340800118078294</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.244977285600061</v>
+        <v>1.353862856647208</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.246759292435234</v>
+        <v>1.356609526610083</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.226435816451868</v>
+        <v>1.335126159359441</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.228512414869103</v>
+        <v>1.341522393857087</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.22531459882985</v>
+        <v>1.336174192849163</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.238623956832375</v>
+        <v>1.349883596143619</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.210351047651278</v>
+        <v>1.318336905241521</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.218643165303038</v>
+        <v>1.316040742996694</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.198763277224144</v>
+        <v>1.290086944980167</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.159115308297659</v>
+        <v>1.246783689828081</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.164602739054778</v>
+        <v>1.252688785049934</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.144960240529182</v>
+        <v>1.231560520147056</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.147211703686594</v>
+        <v>1.23398239436529</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.107118187204169</v>
+        <v>1.190856145840389</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.060403742123825</v>
+        <v>1.140608408212361</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.061294911120431</v>
+        <v>1.141566916070899</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.108925761767984</v>
+        <v>1.192800443304499</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.110083601422111</v>
+        <v>1.194046108334279</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.154105789412398</v>
+        <v>1.24139781954967</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.118947766582059</v>
+        <v>1.203580575359271</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.159699887527621</v>
+        <v>1.24741517705244</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.167191855345568</v>
+        <v>1.255473664338562</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.155857374397357</v>
+        <v>1.243281744767468</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.159873427464121</v>
+        <v>1.247601485742956</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.175574997382243</v>
+        <v>1.264490629218797</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.1645669958754</v>
+        <v>1.252650083147996</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.135548479962464</v>
+        <v>1.221436863809103</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.150668051567971</v>
+        <v>1.237699961236647</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.192095088462096</v>
+        <v>1.282260233037607</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.22202001656918</v>
+        <v>1.314448400027102</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.212865809323563</v>
+        <v>1.30460191985441</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.215091392313539</v>
+        <v>1.306995801155787</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.254742941773101</v>
+        <v>1.349646527546246</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.249376839815741</v>
+        <v>1.343874565268147</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.265493515641419</v>
+        <v>1.361210283537807</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.268591468183647</v>
+        <v>1.364542642980663</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.305263486831298</v>
+        <v>1.403988380429747</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.32646539573154</v>
+        <v>1.426793820903153</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.358360161880296</v>
+        <v>1.461037908338737</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.359921180501079</v>
+        <v>1.462700498929968</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.333356357338353</v>
+        <v>1.443203086251959</v>
       </c>
     </row>
   </sheetData>
